--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t xml:space="preserve">CHERN </t>
   </si>
@@ -41,6 +41,27 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t xml:space="preserve">LEE </t>
+  </si>
+  <si>
+    <t>LE51@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$CqOFinAm1o-BhzsmKZZ5jgs-Q5XuAVjXUMWkP2_SuyU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIU </t>
+  </si>
+  <si>
+    <t>SL22@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>NBS</t>
+  </si>
+  <si>
+    <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
+  </si>
+  <si>
     <t>RAWAL</t>
   </si>
   <si>
@@ -89,9 +110,6 @@
     <t>YCN019@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>NBS</t>
-  </si>
-  <si>
     <t>$31$16$_Wa2ZswKrOjmQu0XnM9FZaVtdl79dEr8Hq3ESVoIpGc</t>
   </si>
   <si>
@@ -122,24 +140,6 @@
     <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
   </si>
   <si>
-    <t xml:space="preserve">LEE </t>
-  </si>
-  <si>
-    <t>LE51@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$CqOFinAm1o-BhzsmKZZ5jgs-Q5XuAVjXUMWkP2_SuyU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIU </t>
-  </si>
-  <si>
-    <t>SL22@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
-  </si>
-  <si>
     <t>Madhukumar</t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>96</t>
   </si>
   <si>
-    <t>2023-01-01</t>
+    <t>2024-01-01</t>
   </si>
   <si>
     <t>2023-01-01T12:00</t>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t>EEE camp</t>
+  </si>
+  <si>
+    <t>SCSEcelebration</t>
+  </si>
+  <si>
+    <t>ANWIT</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2024-01-01T20:00</t>
+  </si>
+  <si>
+    <t>SCSE office</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>YCHERN</t>
@@ -335,35 +356,35 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -377,21 +398,21 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -419,7 +440,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -433,7 +454,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -447,7 +468,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -461,7 +482,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -516,7 +537,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -544,7 +565,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -557,7 +578,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,13 +621,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -630,6 +651,41 @@
         <v>71</v>
       </c>
       <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -640,7 +696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,38 +704,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -41,6 +41,27 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t>DONG</t>
+  </si>
+  <si>
+    <t>DON84@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$O_QO7mpDt7Ah1psoQ5GFUeKyvrYkBZP0y27eVtWBqX4</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>ELI34@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEE </t>
   </si>
   <si>
@@ -80,9 +101,6 @@
     <t>BR015@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
   </si>
   <si>
@@ -120,24 +138,6 @@
   </si>
   <si>
     <t>$31$16$HpHPR6GFAu2cCzbRkA47BhD5w4AxYicD5-v7XU657C0</t>
-  </si>
-  <si>
-    <t>DONG</t>
-  </si>
-  <si>
-    <t>DON84@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$O_QO7mpDt7Ah1psoQ5GFUeKyvrYkBZP0y27eVtWBqX4</t>
-  </si>
-  <si>
-    <t>ERNEST</t>
-  </si>
-  <si>
-    <t>ELI34@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
   </si>
   <si>
     <t>Madhukumar</t>
@@ -356,7 +356,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -384,35 +384,35 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -426,7 +426,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -440,7 +440,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -468,7 +468,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -482,7 +482,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -537,7 +537,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -565,7 +565,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -41,6 +41,45 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t xml:space="preserve">CALVIN </t>
+  </si>
+  <si>
+    <t>CT113@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$dBnAvZb4SjNJjjXxwcQMteFBQ4NPfECV4xHME_Lyc3Q</t>
+  </si>
+  <si>
+    <t>Brandon Liang</t>
+  </si>
+  <si>
+    <t>BLIANG003@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$SppwPah8dVFuPfDqV9i7hkO5DMyvHqWkgTMyt0tnufc</t>
+  </si>
+  <si>
+    <t>CHAN</t>
+  </si>
+  <si>
+    <t>YCN019@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>NBS</t>
+  </si>
+  <si>
+    <t>$31$16$_Wa2ZswKrOjmQu0XnM9FZaVtdl79dEr8Hq3ESVoIpGc</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>DL007@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$HpHPR6GFAu2cCzbRkA47BhD5w4AxYicD5-v7XU657C0</t>
+  </si>
+  <si>
     <t>DONG</t>
   </si>
   <si>
@@ -77,9 +116,6 @@
     <t>SL22@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>NBS</t>
-  </si>
-  <si>
     <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
   </si>
   <si>
@@ -102,42 +138,6 @@
   </si>
   <si>
     <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALVIN </t>
-  </si>
-  <si>
-    <t>CT113@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$dBnAvZb4SjNJjjXxwcQMteFBQ4NPfECV4xHME_Lyc3Q</t>
-  </si>
-  <si>
-    <t>Brandon Liang</t>
-  </si>
-  <si>
-    <t>BLIANG003@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$SppwPah8dVFuPfDqV9i7hkO5DMyvHqWkgTMyt0tnufc</t>
-  </si>
-  <si>
-    <t>CHAN</t>
-  </si>
-  <si>
-    <t>YCN019@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$_Wa2ZswKrOjmQu0XnM9FZaVtdl79dEr8Hq3ESVoIpGc</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>DL007@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$HpHPR6GFAu2cCzbRkA47BhD5w4AxYicD5-v7XU657C0</t>
   </si>
   <si>
     <t>Madhukumar</t>
@@ -356,7 +356,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -370,21 +370,21 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -398,77 +398,77 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -482,7 +482,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -537,7 +537,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -565,7 +565,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -26,7 +26,7 @@
     <t>SCSE</t>
   </si>
   <si>
-    <t>$31$16$JpMUxzbAUqEjZ-N5cM7vw_o72leK7VOveYMu5gvzsD8</t>
+    <t>$31$16$lfJ0ebkbipS9qVEhsU3TS6wEiUuVqfhpH3tyxWtCF5E</t>
   </si>
   <si>
     <t xml:space="preserve">KOH </t>
@@ -41,6 +41,30 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t>RAWAL</t>
+  </si>
+  <si>
+    <t>AKY013@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>$31$16$0pqttDaopUeCoDobVviZAS8GEQ-jIWL8OvTEOuYsNNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANDON </t>
+  </si>
+  <si>
+    <t>BR015@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALVIN </t>
   </si>
   <si>
@@ -95,9 +119,6 @@
     <t>ELI34@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
   </si>
   <si>
@@ -117,27 +138,6 @@
   </si>
   <si>
     <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
-  </si>
-  <si>
-    <t>RAWAL</t>
-  </si>
-  <si>
-    <t>AKY013@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>$31$16$0pqttDaopUeCoDobVviZAS8GEQ-jIWL8OvTEOuYsNNU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANDON </t>
-  </si>
-  <si>
-    <t>BR015@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
   </si>
   <si>
     <t>Madhukumar</t>
@@ -356,119 +356,119 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -482,7 +482,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -537,7 +537,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -565,7 +565,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -26,7 +26,7 @@
     <t>SCSE</t>
   </si>
   <si>
-    <t>$31$16$lfJ0ebkbipS9qVEhsU3TS6wEiUuVqfhpH3tyxWtCF5E</t>
+    <t>$31$16$DM3qDszXR9L8tNlg0Bw7DOOR3lFtQAHL6Ax9s15BQ5s</t>
   </si>
   <si>
     <t xml:space="preserve">KOH </t>
@@ -146,7 +146,7 @@
     <t>HUKUMAR@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>$31$16$U7LXnWCI60l7BpOD4Lipy_QkShX0UuH1qBhXS3Wt6c4</t>
+    <t>$31$16$tPGFjEgEJvAhLr_lQOpXXEoYTUXECFbZGw2xuHxEeR8</t>
   </si>
   <si>
     <t xml:space="preserve">Alexei </t>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t xml:space="preserve">CHERN </t>
   </si>
@@ -26,7 +26,7 @@
     <t>SCSE</t>
   </si>
   <si>
-    <t>$31$16$DM3qDszXR9L8tNlg0Bw7DOOR3lFtQAHL6Ax9s15BQ5s</t>
+    <t>$31$16$CqmjvzPJechxj4_p8pZtpZP9eUYga4s0gctXF4AbUKI</t>
   </si>
   <si>
     <t xml:space="preserve">KOH </t>
@@ -41,6 +41,66 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t>CHAN</t>
+  </si>
+  <si>
+    <t>YCN019@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>NBS</t>
+  </si>
+  <si>
+    <t>$31$16$_Wa2ZswKrOjmQu0XnM9FZaVtdl79dEr8Hq3ESVoIpGc</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>DL007@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$HpHPR6GFAu2cCzbRkA47BhD5w4AxYicD5-v7XU657C0</t>
+  </si>
+  <si>
+    <t>DONG</t>
+  </si>
+  <si>
+    <t>DON84@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$O_QO7mpDt7Ah1psoQ5GFUeKyvrYkBZP0y27eVtWBqX4</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>ELI34@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEE </t>
+  </si>
+  <si>
+    <t>LE51@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$CqOFinAm1o-BhzsmKZZ5jgs-Q5XuAVjXUMWkP2_SuyU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIU </t>
+  </si>
+  <si>
+    <t>SL22@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
+  </si>
+  <si>
     <t>RAWAL</t>
   </si>
   <si>
@@ -59,9 +119,6 @@
     <t>BR015@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
   </si>
   <si>
@@ -83,70 +140,13 @@
     <t>$31$16$SppwPah8dVFuPfDqV9i7hkO5DMyvHqWkgTMyt0tnufc</t>
   </si>
   <si>
-    <t>CHAN</t>
-  </si>
-  <si>
-    <t>YCN019@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>NBS</t>
-  </si>
-  <si>
-    <t>$31$16$_Wa2ZswKrOjmQu0XnM9FZaVtdl79dEr8Hq3ESVoIpGc</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>DL007@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$HpHPR6GFAu2cCzbRkA47BhD5w4AxYicD5-v7XU657C0</t>
-  </si>
-  <si>
-    <t>DONG</t>
-  </si>
-  <si>
-    <t>DON84@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$O_QO7mpDt7Ah1psoQ5GFUeKyvrYkBZP0y27eVtWBqX4</t>
-  </si>
-  <si>
-    <t>ERNEST</t>
-  </si>
-  <si>
-    <t>ELI34@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEE </t>
-  </si>
-  <si>
-    <t>LE51@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$CqOFinAm1o-BhzsmKZZ5jgs-Q5XuAVjXUMWkP2_SuyU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIU </t>
-  </si>
-  <si>
-    <t>SL22@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
-  </si>
-  <si>
     <t>Madhukumar</t>
   </si>
   <si>
     <t>HUKUMAR@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>$31$16$tPGFjEgEJvAhLr_lQOpXXEoYTUXECFbZGw2xuHxEeR8</t>
+    <t>$31$16$4ezZnvqyYzH80bXtm0bT9eyUrPJYobx4Noqyo5cJJr8</t>
   </si>
   <si>
     <t xml:space="preserve">Alexei </t>
@@ -194,54 +194,60 @@
     <t>96</t>
   </si>
   <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2023-01-01T12:00</t>
+  </si>
+  <si>
+    <t>SCSE Lounge</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A camp</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ARVI</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-02T20:20</t>
+  </si>
+  <si>
+    <t>LT19</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>EEE camp</t>
+  </si>
+  <si>
+    <t>SCSEcelebration</t>
+  </si>
+  <si>
+    <t>ANWIT</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>2024-01-01</t>
   </si>
   <si>
-    <t>2023-01-01T12:00</t>
-  </si>
-  <si>
-    <t>SCSE Lounge</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A camp</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ARVI</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-02T20:20</t>
-  </si>
-  <si>
-    <t>LT19</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>EEE camp</t>
-  </si>
-  <si>
-    <t>SCSEcelebration</t>
-  </si>
-  <si>
-    <t>ANWIT</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>2024-01-01T20:00</t>
   </si>
   <si>
@@ -252,6 +258,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2024-02-02T20:00</t>
+  </si>
+  <si>
+    <t>SCSE hall2</t>
   </si>
   <si>
     <t>YCHERN</t>
@@ -370,35 +388,35 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -412,35 +430,35 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -454,7 +472,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -482,7 +500,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -537,7 +555,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -565,7 +583,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -578,7 +596,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -621,13 +639,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -668,24 +686,59 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -696,7 +749,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,39 +757,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3"/>
+    <row r="4"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -26,7 +26,7 @@
     <t>SCSE</t>
   </si>
   <si>
-    <t>$31$16$CqmjvzPJechxj4_p8pZtpZP9eUYga4s0gctXF4AbUKI</t>
+    <t>$31$16$W63krWKXFqtN-cz_llEvn43kWYu7Ux6E9pJ9gxPPCmY</t>
   </si>
   <si>
     <t xml:space="preserve">KOH </t>
@@ -41,6 +41,48 @@
     <t>$31$16$RFM2sypDjYCYyl27u8HZ8VaJeIvVqleYv6PkzIFSgCE</t>
   </si>
   <si>
+    <t>RAWAL</t>
+  </si>
+  <si>
+    <t>AKY013@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>$31$16$0pqttDaopUeCoDobVviZAS8GEQ-jIWL8OvTEOuYsNNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANDON </t>
+  </si>
+  <si>
+    <t>BR015@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALVIN </t>
+  </si>
+  <si>
+    <t>CT113@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$dBnAvZb4SjNJjjXxwcQMteFBQ4NPfECV4xHME_Lyc3Q</t>
+  </si>
+  <si>
+    <t>Brandon Liang</t>
+  </si>
+  <si>
+    <t>BLIANG003@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>$31$16$SppwPah8dVFuPfDqV9i7hkO5DMyvHqWkgTMyt0tnufc</t>
+  </si>
+  <si>
     <t>CHAN</t>
   </si>
   <si>
@@ -77,9 +119,6 @@
     <t>ELI34@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>$31$16$c7nO0WLqSXzUod0UfYjLsXzdx8hblHSmqyT6MU_mFDA</t>
   </si>
   <si>
@@ -101,52 +140,13 @@
     <t>$31$16$uSYqzcaofKDa9FOq7GrWNPZfT3DiZTQjIodMOa1vzPA</t>
   </si>
   <si>
-    <t>RAWAL</t>
-  </si>
-  <si>
-    <t>AKY013@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>$31$16$0pqttDaopUeCoDobVviZAS8GEQ-jIWL8OvTEOuYsNNU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANDON </t>
-  </si>
-  <si>
-    <t>BR015@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$qrVkW8c9-g0k2VQyRjWZHyo5VeN0B3M8fIYSpvNndPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALVIN </t>
-  </si>
-  <si>
-    <t>CT113@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$dBnAvZb4SjNJjjXxwcQMteFBQ4NPfECV4xHME_Lyc3Q</t>
-  </si>
-  <si>
-    <t>Brandon Liang</t>
-  </si>
-  <si>
-    <t>BLIANG003@e.ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>$31$16$SppwPah8dVFuPfDqV9i7hkO5DMyvHqWkgTMyt0tnufc</t>
-  </si>
-  <si>
     <t>Madhukumar</t>
   </si>
   <si>
     <t>HUKUMAR@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>$31$16$4ezZnvqyYzH80bXtm0bT9eyUrPJYobx4Noqyo5cJJr8</t>
+    <t>$31$16$tOZy7PrUzo2AsnwVmVCbtq6xOWZWdB6-LNMXHPgOPUk</t>
   </si>
   <si>
     <t xml:space="preserve">Alexei </t>
@@ -339,170 +339,170 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>24</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
@@ -520,72 +520,72 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>55</v>
       </c>
     </row>
@@ -603,142 +603,142 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>64</v>
       </c>
     </row>
@@ -756,36 +756,36 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>87</v>
       </c>
     </row>
